--- a/docs/mcode/onco-core-TumorMarkerTest.xlsx
+++ b/docs/mcode/onco-core-TumorMarkerTest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="427">
   <si>
     <t>Path</t>
   </si>
@@ -150,8 +150,8 @@
     <t>onco-core-TumorMarkerTest</t>
   </si>
   <si>
-    <t>The result of a tumor marker test. Tumor marker tests are generally used to guide cancer treatment decisions and monitor treatment, as well as to predict the chance of recovery and cancer recurrence. A tumor marker is a substance found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (noncancer) conditions. Most tumor markers are made by both normal cells and cancer cells, but they are made in larger amounts by cancer cells. A tumor marker may help to diagnose cancer, plan treatment, or find out how well treatment is working or if cancer has come back. Examples of tumor markers include CA-125 (in ovarian cancer), CA 15-3 (in breast cancer), CEA (in colon cancer), and PSA (in prostate cancer). Tumor markers differ from genetic markers in that they are measured at the levels of the protein and substance post-RNA protein synthesis. (Source: Adapted from NCI Dictionary of Cancer Terms and Cancer.net)
-Implementation note: The data value element is 'required if known' (0..1) because, for quantitative tests that are indeterminate, no data value will be reported, and the reason for the null value should be reported in the DataAbsentReason field.</t>
+    <t>The result of a tumor marker test. Tumor marker tests are generally used to guide cancer treatment decisions and monitor treatment, as well as to predict the chance of recovery and cancer recurrence. A tumor marker is a substance found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (noncancer) conditions. Most tumor markers are made by both normal cells and cancer cells, but they are made in larger amounts by cancer cells. A tumor marker may help to diagnose cancer, plan treatment, or find out how well treatment is working or if cancer has come back. Examples of tumor markers include CA-125 (in ovarian cancer), CA 15-3 (in breast cancer), CEA (in colon cancer), and PSA (in prostate cancer). Tumor markers differ from genetic markers in that they are measured at the levels of the protein and substance post-RNA protein synthesis. (Source: Adapted from [NCI Dictionary of Cancer Terms](https://www.cancer.gov/publications/dictionaries/cancer-terms) and [Cancer.net](https://www.cancer.net/))
+Implementation note: The data value for TumorMarkerTest has cardinality is 0..1 (required if known) because when the test result is indeterminate, no quantitative data value will be reported. Instead, the reason for the null value will be reported in the DataAbsentReason field.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -179,7 +179,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -195,7 +195,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -205,13 +205,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -224,7 +357,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -253,7 +386,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -280,7 +413,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -299,21 +432,47 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>observationbasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationBasedOn-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationPartOf-extension}
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation-extension}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationDerivedFrom-extension}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -325,10 +484,70 @@
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Resource)
+</t>
+  </si>
+  <si>
+    <t>Resource: Parent class for any item in clinical or administrative health-related system</t>
+  </si>
+  <si>
+    <t>Parent class for any item in clinical or administrative health-related system. Contains metadata attributes that apply to any item represented in the standard health record. An DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -345,49 +564,46 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>OBX.21</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>shr-core-AccessionIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
+    <t>obf-AccessionIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-AccessionIdentifier}
 </t>
   </si>
   <si>
-    <t>AccessionIdentifier</t>
+    <t>AccessionIdentifier: Identifier assigned by the lab</t>
   </si>
   <si>
     <t>Identifier assigned by the lab</t>
   </si>
   <si>
-    <t>shr-core-FillerOrderNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FillerOrderNumber]]} {[]}
+    <t>obf-FillerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FillerOrderNumber}
 </t>
   </si>
   <si>
-    <t>FillerOrderNumber</t>
+    <t>FillerOrderNumber: Identifier assigned by the lab carrying out the test</t>
   </si>
   <si>
     <t>Identifier assigned by the lab carrying out the test.</t>
   </si>
   <si>
-    <t>shr-core-PlacerOrderNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PlacerOrderNumber]]} {[]}
+    <t>obf-PlacerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-PlacerOrderNumber}
 </t>
   </si>
   <si>
-    <t>PlacerOrderNumber</t>
+    <t>PlacerOrderNumber: Identifier assigned by the requester of the lab</t>
   </si>
   <si>
     <t>Identifier assigned by the requester of the lab.</t>
@@ -420,7 +636,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -442,9 +658,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -476,10 +689,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/TumorMarkerTestVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-TumorMarkerTestVS</t>
   </si>
   <si>
     <t>OBX-3</t>
@@ -494,14 +704,14 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what this is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device whose characteristics (direct or indirect) are described by the observation and into whose record the observation is placed.  Comments: Indirect characteristics may be those of a specimen, fetus, donor,  other observer (for example a relative or EMT), or any observation made about the subject.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.  If the target of the observation is different than the subject, the general extension [observation-focal-subject](extension-observation-focal-subject.html).  may be used.  However, the distinction between the patient's own value for an observation versus that of the fetus, or the donor or blood product unit, etc., are often specified in the observation code.</t>
@@ -522,7 +732,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -547,8 +757,8 @@
     <t>Observation.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -579,39 +789,35 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization)
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
+    <t>The practitioner that carried out the observation or action</t>
+  </si>
+  <si>
+    <t>The practitioner that carried out the observation or action.</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -629,14 +835,14 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}Ratio {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>If codeableConcept, valueCodeableConcept *SHOULD*  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If Quantity, valueQuantity units *SHALL* be selected from [UCUM](http://unitsofmeasure.org).</t>
+    <t>Quantity
+CodeableConceptstringRatio</t>
+  </si>
+  <si>
+    <t>A restricted set of value types that could be associated with a tumor marker test</t>
+  </si>
+  <si>
+    <t>A restricted set of value types that could be associated with a tumor marker test.</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. This element has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueString, valueRange, valueRatio, valueSampledData, valueAttachment, valueTime, valueDateTime, or valuePeriod. (The name format is "'value' + the type name" with a capital on the first letter of the type).   If the data element is usually coded or if the type associated with the Observation.value defines a coded value, use CodeableConcept instead of string datatype even if the value is uncoded text.  A value set is bound to the ValueCodeableConcept element.  For boolean values use valueCodeableConcept and select codes from [HL7 Version 2 Table 0136](v2/0136/index.html). These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed.   For further discussion and examples see the  [notes section](observation.html#4.20.4) below.</t>
@@ -670,7 +876,7 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-valueabsentreason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -711,7 +917,7 @@
     <t>Observation.comments</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -748,7 +954,10 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -787,7 +996,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -809,7 +1018,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device)
 </t>
   </si>
   <si>
@@ -831,7 +1040,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -860,19 +1069,17 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>applicablesubpopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ApplicableSubpopulation-extension}
+</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to. For example, a reference range may be based on the normal population or a particular sex or race.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -888,7 +1095,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -947,7 +1154,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1020,7 +1227,7 @@
     <t>A relationship type SHOULD be provided.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="has-member"/&gt;</t>
+    <t>has-member</t>
   </si>
   <si>
     <t>Codes specifying how two observations are related.</t>
@@ -1035,7 +1242,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1097,8 +1304,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1117,6 +1324,9 @@
   </si>
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done".   The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (Observation.value[x]) is missing.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1199,67 +1409,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1295,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1305,7 +1515,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.06640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1314,7 +1524,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1327,8 +1537,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.49609375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1801,23 +2011,21 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1839,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>42</v>
@@ -1865,15 +2073,11 @@
       <c r="AD5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE5" t="s" s="2">
-        <v>61</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" t="s" s="2">
         <v>42</v>
       </c>
@@ -1884,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1892,18 +2096,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1947,41 +2151,35 @@
         <v>42</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" t="s" s="2">
         <v>42</v>
       </c>
@@ -1992,7 +2190,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2000,11 +2198,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2023,17 +2223,13 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2055,7 +2251,7 @@
         <v>42</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>42</v>
@@ -2082,16 +2278,16 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2100,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2108,18 +2304,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2128,19 +2324,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2163,7 +2359,7 @@
         <v>42</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>42</v>
@@ -2189,15 +2385,11 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>82</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2208,7 +2400,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2216,18 +2408,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2236,19 +2428,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2271,7 +2463,7 @@
         <v>42</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>42</v>
@@ -2297,15 +2489,11 @@
       <c r="AD9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2316,7 +2504,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2324,11 +2512,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2341,22 +2529,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2379,7 +2567,7 @@
         <v>42</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>42</v>
@@ -2405,15 +2593,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2424,7 +2608,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2432,7 +2616,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2452,21 +2636,21 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2487,39 +2671,37 @@
         <v>42</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2527,22 +2709,20 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2551,7 +2731,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
@@ -2560,18 +2740,20 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2593,13 +2775,13 @@
         <v>42</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>42</v>
@@ -2619,15 +2801,11 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2635,22 +2813,20 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2665,21 +2841,23 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2728,13 +2906,13 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
@@ -2743,22 +2921,20 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2779,15 +2955,17 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2812,13 +2990,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2836,13 +3014,13 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>42</v>
@@ -2851,52 +3029,52 @@
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2920,11 +3098,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2942,47 +3122,47 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -2991,16 +3171,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3011,7 +3191,7 @@
         <v>42</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>42</v>
@@ -3026,13 +3206,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3050,13 +3230,13 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3068,29 +3248,29 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
@@ -3099,20 +3279,18 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3136,35 +3314,35 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3173,32 +3351,34 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -3207,20 +3387,14 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3268,13 +3442,13 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3283,20 +3457,22 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3305,7 +3481,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3317,18 +3493,14 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3376,13 +3548,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3391,20 +3563,22 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3413,10 +3587,10 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3425,20 +3599,14 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3486,35 +3654,37 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3523,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3532,20 +3702,16 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3594,13 +3760,13 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
@@ -3609,22 +3775,22 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3637,24 +3803,24 @@
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3690,19 +3856,17 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3717,20 +3881,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3739,32 +3905,26 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3812,33 +3972,33 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3852,7 +4012,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -3861,20 +4021,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3895,14 +4051,16 @@
         <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3920,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3929,16 +4087,16 @@
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3946,18 +4104,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -3969,18 +4127,18 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4001,16 +4159,16 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4028,13 +4186,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4043,10 +4201,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4054,7 +4212,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4062,7 +4220,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4077,24 +4235,24 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4109,7 +4267,7 @@
         <v>42</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>42</v>
@@ -4136,10 +4294,10 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>51</v>
@@ -4151,10 +4309,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4162,7 +4320,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4170,10 +4328,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4185,20 +4343,16 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4219,14 +4373,16 @@
         <v>42</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4244,7 +4400,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4259,10 +4415,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4270,7 +4426,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4281,7 +4437,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4293,19 +4449,17 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4330,37 +4484,35 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4369,20 +4521,22 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4403,17 +4557,15 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4462,13 +4614,13 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4477,20 +4629,22 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4499,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4511,17 +4665,15 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4570,13 +4722,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4585,20 +4737,22 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4619,20 +4773,16 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4680,7 +4830,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4692,21 +4842,21 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4714,31 +4864,33 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4762,13 +4914,11 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4786,10 +4936,10 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>51</v>
@@ -4801,32 +4951,32 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4835,16 +4985,16 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4855,7 +5005,7 @@
         <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>42</v>
@@ -4870,13 +5020,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4894,13 +5044,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -4912,49 +5062,51 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4978,13 +5130,11 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5002,13 +5152,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -5017,18 +5167,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5036,13 +5186,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -5051,16 +5201,20 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5108,7 +5262,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5117,24 +5271,24 @@
         <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5157,16 +5311,18 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5214,7 +5370,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5223,24 +5379,24 @@
         <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5254,7 +5410,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
@@ -5263,19 +5419,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5300,13 +5456,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5324,7 +5480,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5336,21 +5492,21 @@
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5370,21 +5526,21 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5432,7 +5588,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5447,18 +5603,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5469,7 +5625,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5478,19 +5634,21 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5538,13 +5696,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5553,18 +5711,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5578,28 +5736,28 @@
         <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>258</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5648,33 +5806,33 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5688,7 +5846,7 @@
         <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5697,7 +5855,7 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>267</v>
@@ -5705,8 +5863,12 @@
       <c r="L41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5730,13 +5892,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5754,7 +5914,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5763,16 +5923,16 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5780,18 +5940,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5803,18 +5963,18 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5838,13 +5998,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5862,13 +6022,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -5877,10 +6037,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5888,41 +6048,41 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5970,13 +6130,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -5985,10 +6145,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5996,7 +6156,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6007,7 +6167,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6019,26 +6179,26 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>42</v>
@@ -6056,13 +6216,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6080,7 +6240,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6095,10 +6255,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6106,7 +6266,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6114,7 +6274,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6129,16 +6289,20 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6162,13 +6326,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6186,10 +6350,10 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>51</v>
@@ -6201,10 +6365,10 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6212,7 +6376,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6223,7 +6387,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6232,23 +6396,21 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6296,13 +6458,13 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
@@ -6311,10 +6473,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6322,7 +6484,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6345,15 +6507,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6402,7 +6566,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6417,10 +6581,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6428,18 +6592,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6451,18 +6615,20 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6510,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6522,13 +6688,13 @@
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6536,40 +6702,38 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6618,13 +6782,13 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
@@ -6636,7 +6800,7 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6644,18 +6808,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6664,21 +6828,21 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6702,59 +6866,59 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6772,23 +6936,17 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6836,13 +6994,13 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
@@ -6851,10 +7009,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6862,43 +7020,41 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6922,11 +7078,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -6944,25 +7102,25 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6970,7 +7128,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6981,7 +7139,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -6993,20 +7151,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7027,7 +7181,7 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>42</v>
@@ -7054,25 +7208,25 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7080,7 +7234,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7103,13 +7257,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7133,7 +7287,7 @@
         <v>42</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>42</v>
@@ -7159,22 +7313,26 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH54" t="s" s="2">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7182,18 +7340,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7205,18 +7363,20 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7237,16 +7397,16 @@
         <v>42</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7263,11 +7423,15 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7275,10 +7439,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7286,41 +7450,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7341,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>42</v>
@@ -7367,11 +7531,15 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7382,7 +7550,7 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7390,7 +7558,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7413,13 +7581,13 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7443,7 +7611,7 @@
         <v>42</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
         <v>42</v>
@@ -7469,22 +7637,26 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH57" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7492,7 +7664,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7512,19 +7684,23 @@
         <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7545,7 +7721,7 @@
         <v>42</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
         <v>42</v>
@@ -7571,22 +7747,26 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH58" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7594,7 +7774,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7617,20 +7797,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7651,16 +7827,16 @@
         <v>42</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7677,11 +7853,15 @@
       <c r="AD59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7689,10 +7869,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7700,18 +7880,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7723,18 +7903,18 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7755,7 +7935,7 @@
         <v>42</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>42</v>
@@ -7781,11 +7961,15 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7796,7 +7980,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7804,38 +7988,40 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7857,7 +8043,7 @@
         <v>42</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>42</v>
@@ -7883,11 +8069,15 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7895,17 +8085,1929 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL61">
+  <autoFilter ref="A1:AL79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7915,7 +10017,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
